--- a/SourceCode/2023/Sep2023/Projects/Yannick/ACME_Work_Item_5/Data/Config.xlsx
+++ b/SourceCode/2023/Sep2023/Projects/Yannick/ACME_Work_Item_5/Data/Config.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Settings" sheetId="1" r:id="rId1"/>
-    <sheet name="Constants" sheetId="2" r:id="rId2"/>
-    <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Settings" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Constants" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Assets" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -30,165 +23,168 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>Wi5Queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueFolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
+  </si>
+  <si>
+    <t>logF_BusinessProcessName</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
+  </si>
+  <si>
+    <t>AcmeUrl</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/login</t>
+  </si>
+  <si>
+    <t>Sha1Url</t>
+  </si>
+  <si>
+    <t>http://www.sha1-online.com/</t>
+  </si>
+  <si>
+    <t>MaxRetryNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
+  </si>
+  <si>
+    <t>MaxConsecutiveSystemExceptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
+  </si>
+  <si>
+    <t>ExScreenshotsFolderPath</t>
+  </si>
+  <si>
+    <t>Exceptions_Screenshots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where to save exceptions screenshots - can be a full or a relative path.</t>
+  </si>
+  <si>
+    <t>LogMessage_GetTransactionData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processing Transaction Number: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static part of logging message. Calling Get Transaction Data.</t>
+  </si>
+  <si>
+    <t>LogMessage_GetTransactionDataError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static part of logging message. Error retrieving Transaction Data.</t>
+  </si>
+  <si>
+    <t>LogMessage_Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction Successful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static part of logging message. Processed Transaction succesful.</t>
+  </si>
+  <si>
+    <t>LogMessage_BusinessRuleException</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business rule exception.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static part of logging message. Processed Transaction failed with business exception.</t>
+  </si>
+  <si>
+    <t>LogMessage_ApplicationException</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System exception.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static part of logging message. Processed Transaction failed with application exception.</t>
+  </si>
+  <si>
+    <t>ExceptionMessage_ConsecutiveErrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
+  </si>
+  <si>
+    <t>RetryNumberGetTransactionItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
+  </si>
+  <si>
+    <t>RetryNumberSetTransactionStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
+  </si>
+  <si>
+    <t>ShouldMarkJobAsFaulted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
+  </si>
+  <si>
     <t>Asset</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Description (Assets will always overwrite other config)</t>
-  </si>
-  <si>
-    <t>MaxRetryNumber</t>
-  </si>
-  <si>
-    <t>ExScreenshotsFolderPath</t>
-  </si>
-  <si>
-    <t>Exceptions_Screenshots</t>
-  </si>
-  <si>
-    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
-  </si>
-  <si>
-    <t>LogMessage_GetTransactionData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processing Transaction Number: </t>
-  </si>
-  <si>
-    <t>LogMessage_GetTransactionDataError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
-  </si>
-  <si>
-    <t>Static part of logging message. Error retrieving Transaction Data.</t>
-  </si>
-  <si>
-    <t>LogMessage_Success</t>
-  </si>
-  <si>
-    <t>Transaction Successful.</t>
-  </si>
-  <si>
-    <t>LogMessage_BusinessRuleException</t>
-  </si>
-  <si>
-    <t>Business rule exception.</t>
-  </si>
-  <si>
-    <t>LogMessage_ApplicationException</t>
-  </si>
-  <si>
-    <t>System exception.</t>
-  </si>
-  <si>
-    <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data.</t>
-  </si>
-  <si>
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
-    <t>OrchestratorQueueFolder</t>
-  </si>
-  <si>
-    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
-  </si>
-  <si>
-    <t>MaxConsecutiveSystemExceptions</t>
-  </si>
-  <si>
-    <t>ExceptionMessage_ConsecutiveErrors</t>
-  </si>
-  <si>
-    <t>RetryNumberGetTransactionItem</t>
-  </si>
-  <si>
-    <t>RetryNumberSetTransactionStatus</t>
-  </si>
-  <si>
-    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
-  </si>
-  <si>
-    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
-  </si>
-  <si>
-    <t>ShouldMarkJobAsFaulted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
-  </si>
-  <si>
-    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
-  </si>
-  <si>
-    <t>ProcessABCQueue</t>
+    <t xml:space="preserve">Description (Assets will always overwrite other config)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <sz val="14.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,26 +197,24 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,15 +225,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -281,108 +555,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,7 +570,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -416,7 +596,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -468,16 +648,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -493,7 +685,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -524,32 +716,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="43.5546875"/>
+    <col customWidth="1" min="2" max="2" width="43"/>
+    <col customWidth="1" min="3" max="3" width="81.44140625"/>
+    <col customWidth="1" min="4" max="26" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -583,49 +768,63 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" ht="42.75">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="28.5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1609,29 +1808,33 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B7"/>
+    <hyperlink r:id="rId2" ref="B8"/>
+  </hyperlinks>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z988"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="41"/>
+    <col customWidth="1" min="2" max="2" width="51"/>
+    <col customWidth="1" min="3" max="3" width="75.44140625"/>
+    <col customWidth="1" min="4" max="26" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1665,157 +1868,157 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" ht="28.5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" ht="42.75">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
       </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="28.5">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2773,37 +2976,40 @@
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="31.88671875"/>
+    <col customWidth="1" min="2" max="2" width="30.109375"/>
+    <col customWidth="1" min="3" max="3" width="60.33203125"/>
+    <col customWidth="1" min="4" max="26" width="65.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2828,21 +3034,21 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" ht="14.25" customHeight="1"/>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -3828,7 +4034,9 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/SourceCode/2023/Sep2023/Projects/Yannick/ACME_Work_Item_5/Data/Config.xlsx
+++ b/SourceCode/2023/Sep2023/Projects/Yannick/ACME_Work_Item_5/Data/Config.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>http://www.sha1-online.com/</t>
+  </si>
+  <si>
+    <t>AcmeCredential</t>
   </si>
   <si>
     <t>MaxRetryNumber</t>
@@ -171,13 +174,12 @@
   <fonts count="3">
     <font>
       <sz val="11.000000"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="14.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -817,7 +819,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -1870,138 +1879,138 @@
     </row>
     <row r="2" ht="28.5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="42.75">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="28.5">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -3003,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
